--- a/Graphs/ChiSquare/Cleptoparasites.xlsx
+++ b/Graphs/ChiSquare/Cleptoparasites.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="90">
   <si>
     <t>Number</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Packard, 1870</t>
   </si>
   <si>
-    <t>Packard, A. S. Treatise on Injurious and Beneficial Insects to Crops: a Study for the Use of Colleges, Farm-Schools and Agriculturists. Logos Press, 1870.</t>
-  </si>
-  <si>
     <t>Rightmyer, 2006</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
   </si>
   <si>
     <t>LeBuhn, 2013</t>
-  </si>
-  <si>
-    <t>LeBuhn, Gretchen. Field Guide to the Common Bees of California. University of California Press, 2013.</t>
   </si>
   <si>
     <t>Svastra obliqua</t>
@@ -306,8 +300,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -335,11 +345,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,8 +356,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4560A5-9D8C-4018-8F3D-306117D34375}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:N25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,63 +694,63 @@
     <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3010</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>41779</v>
       </c>
       <c r="C2" s="1">
@@ -755,30 +768,31 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="M2" s="6"/>
       <c r="N2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3605</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>41789</v>
       </c>
       <c r="C3" s="1">
@@ -796,24 +810,27 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3914</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>41799</v>
       </c>
       <c r="C4" s="1">
@@ -831,27 +848,29 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4253</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>41814</v>
       </c>
       <c r="C5" s="1">
@@ -869,27 +888,29 @@
       <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4715</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>41844</v>
       </c>
       <c r="C6" s="1">
@@ -907,30 +928,31 @@
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="L6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4900</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>41868</v>
       </c>
       <c r="C7" s="1">
@@ -948,30 +970,31 @@
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="L7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5211</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>41789</v>
       </c>
       <c r="C8" s="1">
@@ -989,36 +1012,34 @@
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="L8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5213</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>41789</v>
       </c>
       <c r="C9" s="1">
@@ -1036,27 +1057,29 @@
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="K9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5214</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>41789</v>
       </c>
       <c r="C10" s="1">
@@ -1074,30 +1097,31 @@
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5215</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>41789</v>
       </c>
       <c r="C11" s="1">
@@ -1115,30 +1139,31 @@
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5216</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>41789</v>
       </c>
       <c r="C12" s="1">
@@ -1156,30 +1181,31 @@
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5354</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>41823</v>
       </c>
       <c r="C13" s="1">
@@ -1197,30 +1223,31 @@
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5365</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>41823</v>
       </c>
       <c r="C14" s="1">
@@ -1238,30 +1265,31 @@
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5366</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>41823</v>
       </c>
       <c r="C15" s="1">
@@ -1279,30 +1307,31 @@
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="M15" s="6"/>
       <c r="N15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5367</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>41823</v>
       </c>
       <c r="C16" s="1">
@@ -1320,30 +1349,31 @@
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="M16" s="6"/>
       <c r="N16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5420</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>41838</v>
       </c>
       <c r="C17" s="1">
@@ -1361,30 +1391,29 @@
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5423</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>41838</v>
       </c>
       <c r="C18" s="1">
@@ -1402,30 +1431,31 @@
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="L18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="6"/>
       <c r="N18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5513</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>41850</v>
       </c>
       <c r="C19" s="1">
@@ -1443,27 +1473,29 @@
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="K19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5552</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>41868</v>
       </c>
       <c r="C20" s="1">
@@ -1481,30 +1513,31 @@
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="L20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="6"/>
       <c r="N20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5553</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>41868</v>
       </c>
       <c r="C21" s="1">
@@ -1522,30 +1555,31 @@
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="L21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="6"/>
       <c r="N21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5554</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>41868</v>
       </c>
       <c r="C22" s="1">
@@ -1563,30 +1597,31 @@
       <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="L22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" s="6"/>
       <c r="N22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5555</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>41868</v>
       </c>
       <c r="C23" s="1">
@@ -1604,27 +1639,29 @@
       <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="K23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>5698</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>41881</v>
       </c>
       <c r="C24" s="1">
@@ -1642,30 +1679,31 @@
       <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="L24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="6"/>
       <c r="N24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>6041</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>42136</v>
       </c>
       <c r="C25" s="1">
@@ -1683,30 +1721,31 @@
       <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="M25" s="6"/>
       <c r="N25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>6073</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>42126</v>
       </c>
       <c r="C26" s="1">
@@ -1724,21 +1763,24 @@
       <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6074</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>42126</v>
       </c>
       <c r="C27" s="1">
@@ -1756,21 +1798,24 @@
       <c r="G27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>6078</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>42126</v>
       </c>
       <c r="C28" s="1">
@@ -1788,21 +1833,24 @@
       <c r="G28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>6218</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>42151</v>
       </c>
       <c r="C29" s="1">
@@ -1820,18 +1868,22 @@
       <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="H29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>6292</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>42151</v>
       </c>
       <c r="C30" s="1">
@@ -1849,18 +1901,22 @@
       <c r="G30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6295</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>42151</v>
       </c>
       <c r="C31" s="1">
@@ -1878,18 +1934,22 @@
       <c r="G31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6298</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>42151</v>
       </c>
       <c r="C32" s="1">
@@ -1907,21 +1967,24 @@
       <c r="G32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6299</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>42151</v>
       </c>
       <c r="C33" s="1">
@@ -1939,18 +2002,22 @@
       <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="H33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>6619</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>42156</v>
       </c>
       <c r="C34" s="1">
@@ -1968,21 +2035,24 @@
       <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="H34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6778</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>42176</v>
       </c>
       <c r="C35" s="1">
@@ -2000,18 +2070,22 @@
       <c r="G35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>6791</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>42176</v>
       </c>
       <c r="C36" s="1">
@@ -2029,21 +2103,24 @@
       <c r="G36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="H36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>6897</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>42171</v>
       </c>
       <c r="C37" s="1">
@@ -2061,18 +2138,22 @@
       <c r="G37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="I37" s="6"/>
+      <c r="J37" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>6968</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>42184</v>
       </c>
       <c r="C38" s="1">
@@ -2090,18 +2171,22 @@
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="H38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>7199</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>42215</v>
       </c>
       <c r="C39" s="1">
@@ -2119,18 +2204,22 @@
       <c r="G39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>7213</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>42215</v>
       </c>
       <c r="C40" s="1">
@@ -2148,21 +2237,24 @@
       <c r="G40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>8128</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>42494</v>
       </c>
       <c r="C41" s="1">
@@ -2180,21 +2272,24 @@
       <c r="G41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>8304</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>42508</v>
       </c>
       <c r="C42" s="1">
@@ -2212,21 +2307,24 @@
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>8931</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>42519</v>
       </c>
       <c r="C43" s="1">
@@ -2244,21 +2342,24 @@
       <c r="G43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="H43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8932</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>42519</v>
       </c>
       <c r="C44" s="1">
@@ -2276,21 +2377,24 @@
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>8933</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>42519</v>
       </c>
       <c r="C45" s="1">
@@ -2308,21 +2412,24 @@
       <c r="G45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>8936</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>42519</v>
       </c>
       <c r="C46" s="1">
@@ -2340,21 +2447,24 @@
       <c r="G46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>8937</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>42519</v>
       </c>
       <c r="C47" s="1">
@@ -2372,21 +2482,24 @@
       <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>8946</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>42519</v>
       </c>
       <c r="C48" s="1">
@@ -2404,21 +2517,24 @@
       <c r="G48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>10447</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>42596</v>
       </c>
       <c r="C49" s="1">
@@ -2436,18 +2552,22 @@
       <c r="G49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="I49" s="6"/>
+      <c r="J49" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>10456</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>42596</v>
       </c>
       <c r="C50" s="1">
@@ -2465,18 +2585,22 @@
       <c r="G50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="I50" s="6"/>
+      <c r="J50" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>10575</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>42598</v>
       </c>
       <c r="C51" s="1">
@@ -2494,21 +2618,24 @@
       <c r="G51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>10620</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>42599</v>
       </c>
       <c r="C52" s="1">
@@ -2526,21 +2653,24 @@
       <c r="G52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>10654</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>42600</v>
       </c>
       <c r="C53" s="1">
@@ -2558,21 +2688,24 @@
       <c r="G53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>10687</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>42600</v>
       </c>
       <c r="C54" s="1">
@@ -2590,15 +2723,18 @@
       <c r="G54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2606,5 +2742,6 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>